--- a/i2C Materialliste/Elektronik.xlsx
+++ b/i2C Materialliste/Elektronik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\i2C Materialliste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F77B74A-599A-4E56-804A-1B2976185D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64213D71-D36E-4909-B20B-2AE24949E305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="BOM_DIFi2C_Printhead_20_07" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DifI2C!$A$1:$P$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DifI2C!$A$1:$P$38</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="299">
   <si>
     <t>Alternative</t>
   </si>
@@ -929,6 +929,15 @@
   </si>
   <si>
     <t>Pin-Reihen im rechten Winkel</t>
+  </si>
+  <si>
+    <t>Buchse gerade (wird auf Pin-Reihen gesteckt)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/-/en/YIXISI-Connector-JST-XH-Female-Adapter/dp/B082ZLYRRN/ref=sr_1_5?crid=H93OZ5VEUGJW&amp;dib=eyJ2IjoiMSJ9.7m8m29Drhd1q3rbB7znwfSTJfJGbITRYyWzIvIiWqVsYA6GAV0b0dVYUJta91mDzwLVlNZFnhQgzZtKw8Q0cow8ErBBHGwLmSeC5uaBwSBHNmM_PIi8NhexMfQ9iPq3x50uhUtgt5x4dS94u3axs6saK3v8C2ZwHmqITRzQdDBvqm2X-RgduYPPV1pePnYYGv8CcZgCB4tEyB-5cqTTVRwLC4HQN9icJUrg-qBSsI9v4QS9zI_wV0IPnUgNQMgzds_ldGWllEOLjn4W_4Ci05t_8bBydN9_3JZGurerOUXY.4TtL_qTrn5BVserzyWZruH3Iy2q5VpMXRbYEdtNOyP4&amp;dib_tag=se&amp;keywords=jst&amp;qid=1722258433&amp;sprefix=jst%2Caps%2C171&amp;sr=8-5&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerade Buchsen, 2.54mm </t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1625,6 +1634,12 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2234,10 +2249,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC336CF2-AEC6-47D9-9EA5-9D5A14B19E97}" name="Table5" displayName="Table5" ref="A1:P36" totalsRowShown="0" headerRowBorderDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="A1:P36" xr:uid="{BC336CF2-AEC6-47D9-9EA5-9D5A14B19E97}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC336CF2-AEC6-47D9-9EA5-9D5A14B19E97}" name="Table5" displayName="Table5" ref="A1:P38" totalsRowShown="0" headerRowBorderDxfId="23" tableBorderDxfId="22">
+  <autoFilter ref="A1:P38" xr:uid="{BC336CF2-AEC6-47D9-9EA5-9D5A14B19E97}">
     <filterColumn colId="0">
       <filters blank="1">
+        <filter val="B1"/>
+        <filter val="B2"/>
         <filter val="B3"/>
         <filter val="K2"/>
         <filter val="SR2"/>
@@ -2257,8 +2274,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P36">
-    <sortCondition ref="C1:C36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P38">
+    <sortCondition ref="C1:C38"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{95952672-1FDA-4B59-A326-CD1AD2B01F86}" name="Alternative" dataDxfId="21"/>
@@ -2581,11 +2598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C0DAD-F6B9-4E54-9647-FAF0BAA0CA58}">
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
+      <selection pane="bottomLeft" activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2668,7 +2685,7 @@
       </c>
       <c r="T1" s="58"/>
       <c r="U1" s="37">
-        <f>SUMIFS(N6:N36,O6:O36, "Nicht Gekauft",P6:P36,"Benötigt")</f>
+        <f>SUMIFS(N6:N38,O6:O38, "Nicht Gekauft",P6:P38,"Benötigt")</f>
         <v>83</v>
       </c>
       <c r="W1" s="55" t="s">
@@ -2676,8 +2693,8 @@
       </c>
       <c r="X1" s="56"/>
       <c r="Y1" s="26">
-        <f>SUM(N2:N36)</f>
-        <v>234.22999999999996</v>
+        <f>SUM(N2:N38)</f>
+        <v>243.05999999999995</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -2713,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="46">
-        <f t="shared" ref="N2:N36" si="0">L2*M2</f>
+        <f t="shared" ref="N2:N38" si="0">L2*M2</f>
         <v>9.91</v>
       </c>
       <c r="O2" s="43" t="s">
@@ -2811,7 +2828,7 @@
         <v>292</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R16" si="1">IF(AND(O4="Nicht Gekauft", P4="Benötigt"), N4, 0)</f>
+        <f t="shared" ref="R4:R18" si="1">IF(AND(O4="Nicht Gekauft", P4="Benötigt"), N4, 0)</f>
         <v>6.99</v>
       </c>
     </row>
@@ -2863,7 +2880,7 @@
         <v>17.059999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>142</v>
       </c>
@@ -2912,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>142</v>
       </c>
@@ -2961,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>142</v>
       </c>
@@ -3010,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>156</v>
       </c>
@@ -3060,20 +3077,18 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>295</v>
+      <c r="A10" s="45"/>
+      <c r="B10" s="27" t="s">
+        <v>296</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>161</v>
+      <c r="E10" s="27" t="s">
+        <v>298</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>34</v>
@@ -3085,67 +3100,58 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="L10" s="3">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="M10" s="13">
+        <v>1</v>
+      </c>
+      <c r="N10" s="63">
+        <f>L10*M10</f>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="O10" s="64"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L11" s="3">
         <v>7.55</v>
       </c>
-      <c r="M10" s="13">
-        <v>1</v>
-      </c>
-      <c r="N10" s="46">
+      <c r="M11" s="13">
+        <v>1</v>
+      </c>
+      <c r="N11" s="46">
         <f t="shared" si="0"/>
         <v>7.55</v>
-      </c>
-      <c r="O10" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q10" s="24"/>
-      <c r="R10">
-        <f t="shared" si="1"/>
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="M11" s="13">
-        <v>1</v>
-      </c>
-      <c r="N11" s="46">
-        <f t="shared" si="0"/>
-        <v>3.7</v>
       </c>
       <c r="O11" s="43" t="s">
         <v>24</v>
@@ -3156,96 +3162,88 @@
       <c r="Q11" s="24"/>
       <c r="R11">
         <f t="shared" si="1"/>
-        <v>3.7</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="45" t="s">
+        <v>160</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="11" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="L12" s="3">
-        <v>2.5</v>
+        <v>0.78</v>
       </c>
       <c r="M12" s="13">
         <v>1</v>
       </c>
       <c r="N12" s="46">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="O12" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>292</v>
-      </c>
+        <f t="shared" ref="N12" si="2">L12*M12</f>
+        <v>0.78</v>
+      </c>
+      <c r="O12" s="64"/>
+      <c r="P12" s="6"/>
       <c r="Q12" s="24"/>
-      <c r="R12">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2">
-        <v>3.0000000000000001E-5</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J13" s="8"/>
-      <c r="K13" s="36" t="s">
-        <v>64</v>
+      <c r="K13" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="L13" s="3">
-        <v>1.39</v>
+        <v>3.7</v>
       </c>
       <c r="M13" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="46">
         <f t="shared" si="0"/>
-        <v>2.78</v>
+        <v>3.7</v>
       </c>
       <c r="O13" s="43" t="s">
         <v>24</v>
@@ -3256,30 +3254,28 @@
       <c r="Q13" s="24"/>
       <c r="R13">
         <f t="shared" si="1"/>
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>65</v>
-      </c>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
@@ -3287,66 +3283,67 @@
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="11" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="L14" s="3">
-        <v>1.1100000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="M14" s="13">
         <v>1</v>
       </c>
       <c r="N14" s="46">
         <f t="shared" si="0"/>
-        <v>1.1100000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="O14" s="43" t="s">
         <v>24</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="Q14" s="24"/>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
-        <v>71</v>
-      </c>
+      <c r="A15" s="45"/>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
         <v>39</v>
       </c>
       <c r="J15" s="8"/>
-      <c r="K15" s="11" t="s">
-        <v>74</v>
+      <c r="K15" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="L15" s="3">
-        <v>0.56000000000000005</v>
+        <v>1.39</v>
       </c>
       <c r="M15" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="46">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>2.78</v>
       </c>
       <c r="O15" s="43" t="s">
         <v>24</v>
@@ -3354,144 +3351,147 @@
       <c r="P15" s="6" t="s">
         <v>292</v>
       </c>
+      <c r="Q15" s="24"/>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>65</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="G16" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
         <v>39</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L16" s="3">
-        <v>1.32</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M16" s="13">
         <v>1</v>
       </c>
       <c r="N16" s="46">
         <f t="shared" si="0"/>
-        <v>1.32</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="O16" s="43" t="s">
         <v>24</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>292</v>
+        <v>25</v>
       </c>
       <c r="R16">
         <f t="shared" si="1"/>
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>34</v>
+        <v>73</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.4999999999999997E-5</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="4"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="8"/>
       <c r="K17" s="11" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="L17" s="3">
-        <v>12.02</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M17" s="13">
         <v>1</v>
       </c>
       <c r="N17" s="46">
         <f t="shared" si="0"/>
-        <v>12.02</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O17" s="43" t="s">
         <v>24</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>25</v>
+        <v>292</v>
       </c>
       <c r="R17">
-        <f t="shared" ref="R17:R18" si="2">IF(AND(O17="Nicht Gekauft", P17="Benötigt"), N17, 0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>138</v>
-      </c>
+      <c r="A18" s="45"/>
       <c r="B18" s="2" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="4"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="8"/>
       <c r="K18" s="11" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="L18" s="3">
-        <v>3.9</v>
+        <v>1.32</v>
       </c>
       <c r="M18" s="13">
         <v>1</v>
       </c>
       <c r="N18" s="46">
         <f t="shared" si="0"/>
-        <v>3.9</v>
+        <v>1.32</v>
       </c>
       <c r="O18" s="43" t="s">
         <v>24</v>
@@ -3500,70 +3500,74 @@
         <v>292</v>
       </c>
       <c r="R18">
-        <f t="shared" si="2"/>
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+        <f t="shared" si="1"/>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>132</v>
+      </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>81</v>
+        <v>135</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="11" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="L19" s="3">
-        <v>8.66</v>
+        <v>12.02</v>
       </c>
       <c r="M19" s="13">
         <v>1</v>
       </c>
       <c r="N19" s="46">
         <f t="shared" si="0"/>
-        <v>8.66</v>
+        <v>12.02</v>
       </c>
       <c r="O19" s="43" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>292</v>
+        <v>25</v>
       </c>
       <c r="R19">
-        <f t="shared" ref="R19:R24" si="3">IF(AND(O19="Nicht Gekauft", P19="Benötigt"), N19, 0)</f>
+        <f t="shared" ref="R19:R20" si="3">IF(AND(O19="Nicht Gekauft", P19="Benötigt"), N19, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="45" t="s">
+        <v>138</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>34</v>
@@ -3571,85 +3575,84 @@
       <c r="G20" s="2"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="11" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="L20" s="3">
-        <v>5.99</v>
+        <v>3.9</v>
       </c>
       <c r="M20" s="13">
         <v>1</v>
       </c>
       <c r="N20" s="46">
         <f t="shared" si="0"/>
-        <v>5.99</v>
+        <v>3.9</v>
       </c>
       <c r="O20" s="43" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="P20" s="6" t="s">
         <v>292</v>
       </c>
       <c r="R20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>90</v>
+        <v>34</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="4"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="8"/>
       <c r="K21" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L21" s="3">
-        <v>0.25</v>
+        <v>8.66</v>
       </c>
       <c r="M21" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" s="46">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8.66</v>
       </c>
       <c r="O21" s="43" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="Q21" s="22"/>
       <c r="R21">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" ref="R21:R26" si="4">IF(AND(O21="Nicht Gekauft", P21="Benötigt"), N21, 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>80</v>
@@ -3658,7 +3661,7 @@
         <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>34</v>
@@ -3670,17 +3673,17 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L22" s="3">
-        <v>18.14</v>
+        <v>5.99</v>
       </c>
       <c r="M22" s="13">
         <v>1</v>
       </c>
       <c r="N22" s="46">
         <f t="shared" si="0"/>
-        <v>18.14</v>
+        <v>5.99</v>
       </c>
       <c r="O22" s="43" t="s">
         <v>84</v>
@@ -3689,7 +3692,7 @@
         <v>292</v>
       </c>
       <c r="R22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3698,14 +3701,14 @@
       <c r="B23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>176</v>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>34</v>
@@ -3717,17 +3720,17 @@
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="11" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="L23" s="3">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="M23" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" s="46">
         <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="O23" s="43" t="s">
         <v>24</v>
@@ -3737,93 +3740,92 @@
       </c>
       <c r="Q23" s="22"/>
       <c r="R23">
-        <f t="shared" si="3"/>
-        <v>0.64</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="8"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="4"/>
       <c r="K24" s="11" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="L24" s="3">
-        <v>0.88</v>
+        <v>18.14</v>
       </c>
       <c r="M24" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N24" s="46">
         <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
+        <v>18.14</v>
       </c>
       <c r="O24" s="43" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="Q24" s="22"/>
       <c r="R24">
-        <f t="shared" si="3"/>
-        <v>8.8000000000000007</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>176</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8" t="s">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="11" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="L25" s="3">
-        <v>0.56999999999999995</v>
+        <v>0.32</v>
       </c>
       <c r="M25" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" s="46">
         <f t="shared" si="0"/>
-        <v>2.2799999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="O25" s="43" t="s">
         <v>24</v>
@@ -3833,23 +3835,23 @@
       </c>
       <c r="Q25" s="22"/>
       <c r="R25">
-        <f t="shared" ref="R25:R36" si="4">IF(AND(O25="Nicht Gekauft", P25="Benötigt"), N25, 0)</f>
-        <v>2.2799999999999998</v>
+        <f t="shared" si="4"/>
+        <v>0.64</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>34</v>
@@ -3861,17 +3863,17 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L26" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.88</v>
       </c>
       <c r="M26" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N26" s="46">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="O26" s="43" t="s">
         <v>24</v>
@@ -3882,44 +3884,44 @@
       <c r="Q26" s="22"/>
       <c r="R26">
         <f t="shared" si="4"/>
-        <v>2.2000000000000002</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>173</v>
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4" t="s">
+      <c r="H27" s="8"/>
+      <c r="I27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="8"/>
       <c r="K27" s="11" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="L27" s="3">
-        <v>2.2999999999999998</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M27" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N27" s="46">
         <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="O27" s="43" t="s">
         <v>24</v>
@@ -3927,79 +3929,76 @@
       <c r="P27" s="6" t="s">
         <v>292</v>
       </c>
+      <c r="Q27" s="22"/>
       <c r="R27">
-        <f t="shared" si="4"/>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
-        <v>117</v>
-      </c>
+        <f t="shared" ref="R27:R38" si="5">IF(AND(O27="Nicht Gekauft", P27="Benötigt"), N27, 0)</f>
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
       <c r="B28" s="2" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
+      <c r="H28" s="8"/>
+      <c r="I28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="8"/>
       <c r="K28" s="11" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="L28" s="3">
-        <v>1.0900000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M28" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N28" s="46">
         <f t="shared" si="0"/>
-        <v>2.1800000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O28" s="43" t="s">
         <v>24</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>25</v>
+        <v>292</v>
       </c>
       <c r="Q28" s="22"/>
       <c r="R28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
-        <v>123</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
       <c r="B29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>125</v>
+        <v>171</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>173</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>174</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="4"/>
@@ -4008,45 +4007,44 @@
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="11" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="L29" s="3">
-        <v>4.49</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M29" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" s="46">
         <f t="shared" si="0"/>
-        <v>8.98</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O29" s="43" t="s">
         <v>24</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q29" s="22"/>
+        <v>292</v>
+      </c>
       <c r="R29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>34</v>
@@ -4054,50 +4052,52 @@
       <c r="G30" s="2"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L30" s="3">
-        <v>2.81</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M30" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N30" s="46">
         <f t="shared" si="0"/>
-        <v>11.24</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="O30" s="43" t="s">
         <v>24</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>292</v>
+        <v>25</v>
       </c>
       <c r="Q30" s="22"/>
       <c r="R30">
-        <f t="shared" si="4"/>
-        <v>11.24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="45" t="s">
+        <v>123</v>
+      </c>
       <c r="B31" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="40" t="s">
-        <v>168</v>
+      <c r="D31" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>34</v>
+        <v>126</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="4"/>
@@ -4106,44 +4106,45 @@
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="11" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="L31" s="3">
-        <v>16.100000000000001</v>
+        <v>4.49</v>
       </c>
       <c r="M31" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31" s="46">
         <f t="shared" si="0"/>
-        <v>16.100000000000001</v>
+        <v>8.98</v>
       </c>
       <c r="O31" s="43" t="s">
         <v>24</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>292</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q31" s="22"/>
       <c r="R31">
-        <f t="shared" si="4"/>
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>99</v>
+        <v>129</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>34</v>
@@ -4151,50 +4152,47 @@
       <c r="G32" s="2"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>101</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J32" s="4"/>
       <c r="K32" s="11" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="L32" s="3">
-        <v>11</v>
+        <v>2.81</v>
       </c>
       <c r="M32" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N32" s="46">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>11.24</v>
       </c>
       <c r="O32" s="43" t="s">
         <v>24</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="Q32" s="22"/>
       <c r="R32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>106</v>
+        <f t="shared" si="5"/>
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>34</v>
@@ -4202,21 +4200,21 @@
       <c r="G33" s="2"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="11" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="L33" s="3">
-        <v>16.13</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="M33" s="13">
         <v>1</v>
       </c>
       <c r="N33" s="46">
         <f t="shared" si="0"/>
-        <v>16.13</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="O33" s="43" t="s">
         <v>24</v>
@@ -4225,25 +4223,25 @@
         <v>292</v>
       </c>
       <c r="R33">
-        <f t="shared" si="4"/>
-        <v>16.13</v>
+        <f t="shared" si="5"/>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>111</v>
+      <c r="D34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>34</v>
@@ -4251,21 +4249,23 @@
       <c r="G34" s="2"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="K34" s="11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="L34" s="3">
-        <v>2.97</v>
+        <v>11</v>
       </c>
       <c r="M34" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N34" s="46">
         <f t="shared" si="0"/>
-        <v>5.94</v>
+        <v>11</v>
       </c>
       <c r="O34" s="43" t="s">
         <v>24</v>
@@ -4273,22 +4273,26 @@
       <c r="P34" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="R34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>97</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>34</v>
@@ -4296,115 +4300,203 @@
       <c r="G35" s="2"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L35" s="3">
-        <v>5.92</v>
+        <v>16.13</v>
       </c>
       <c r="M35" s="13">
         <v>1</v>
       </c>
       <c r="N35" s="46">
         <f t="shared" si="0"/>
-        <v>5.92</v>
+        <v>16.13</v>
       </c>
       <c r="O35" s="43" t="s">
         <v>24</v>
       </c>
       <c r="P35" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="5"/>
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L36" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="M36" s="13">
+        <v>2</v>
+      </c>
+      <c r="N36" s="46">
+        <f t="shared" si="0"/>
+        <v>5.94</v>
+      </c>
+      <c r="O36" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47" t="s">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B37" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C37" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D37" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L37" s="3">
+        <v>5.92</v>
+      </c>
+      <c r="M37" s="13">
+        <v>1</v>
+      </c>
+      <c r="N37" s="46">
+        <f t="shared" si="0"/>
+        <v>5.92</v>
+      </c>
+      <c r="O37" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E38" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F38" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="48"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50" t="s">
+      <c r="G38" s="48"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="50"/>
-      <c r="K36" s="51" t="s">
+      <c r="J38" s="50"/>
+      <c r="K38" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="L36" s="52">
+      <c r="L38" s="52">
         <v>2.64</v>
       </c>
-      <c r="M36" s="53">
-        <v>1</v>
-      </c>
-      <c r="N36" s="54">
+      <c r="M38" s="53">
+        <v>1</v>
+      </c>
+      <c r="N38" s="54">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="O36" s="43" t="s">
+      <c r="O38" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="P36" s="6" t="s">
+      <c r="P38" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R36">
-        <f t="shared" si="4"/>
+      <c r="R38">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="38" t="s">
+    <row r="39" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="F38" s="21">
-        <f>SUBTOTAL(9,F1:F36)</f>
+      <c r="F40" s="21">
+        <f>SUBTOTAL(9,F1:F38)</f>
         <v>0.112465</v>
       </c>
-      <c r="L38" s="61" t="s">
+      <c r="L40" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="M38" s="62"/>
-      <c r="N38" s="39">
-        <f>SUBTOTAL(9,N1:N36)</f>
-        <v>140.60999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="7"/>
-      <c r="L41" s="59" t="s">
-        <v>293</v>
-      </c>
-      <c r="M41" s="60"/>
-      <c r="N41" s="25">
-        <f>SUBTOTAL(9,R1:R36)</f>
-        <v>100.82999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="62"/>
+      <c r="N40" s="39">
+        <f>SUBTOTAL(9,N1:N38)</f>
+        <v>177.14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="7"/>
+      <c r="L43" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="M43" s="60"/>
+      <c r="N43" s="25">
+        <f>SUBTOTAL(9,R1:R38)</f>
+        <v>100.82999999999998</v>
+      </c>
     </row>
     <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G44" s="7"/>
@@ -4417,20 +4509,26 @@
     </row>
     <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G47" s="7"/>
-      <c r="K47" s="23"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="7:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="7:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="23"/>
+    </row>
+    <row r="50" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="7:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G51" s="7"/>
-      <c r="H51" s="7" t="s">
+    </row>
+    <row r="52" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="7"/>
+      <c r="H53" s="7" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4438,8 +4536,8 @@
   <mergeCells count="4">
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="S1:T1"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L40:M40"/>
   </mergeCells>
   <conditionalFormatting sqref="O1:O1048576">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -4457,7 +4555,7 @@
       <formula>"Gekauft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P36">
+  <conditionalFormatting sqref="P2:P38">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Nicht benötigt"</formula>
     </cfRule>
@@ -4466,55 +4564,56 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P36" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P38" xr:uid="{DF639F38-DCBF-4FB0-9016-BE70B5447265}">
       <formula1>"Benötigt,Nicht benötigt"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O36" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O38" xr:uid="{BB82D80E-695D-4A38-A148-48463DFE8321}">
       <formula1>"Gekauft,Nicht Gekauft"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{134576B2-6870-47F8-80B5-95CA9B97F9E2}"/>
-    <hyperlink ref="K24" r:id="rId2" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
-    <hyperlink ref="K25" r:id="rId3" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
-    <hyperlink ref="K26" r:id="rId4" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
-    <hyperlink ref="K11" r:id="rId5" xr:uid="{0E5E05B1-9779-4867-83A4-99BCB07A9907}"/>
-    <hyperlink ref="K12" r:id="rId6" xr:uid="{BA21AA51-33E7-4503-9F53-E7E2E2FAACA3}"/>
-    <hyperlink ref="K13" r:id="rId7" xr:uid="{B1E78E7E-2247-4478-AE30-5D40F0D58865}"/>
-    <hyperlink ref="K15" r:id="rId8" xr:uid="{06E700D7-8F7D-42B2-BDA4-58445FAADBDC}"/>
-    <hyperlink ref="K16" r:id="rId9" xr:uid="{50D6414E-7EAA-4BE0-AFE6-B5E2EDDCBBF3}"/>
-    <hyperlink ref="K19" r:id="rId10" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
-    <hyperlink ref="K20" r:id="rId11" display="https://www.amazon.de/-/en/Emitting-Electronic-Components-Assortment-Experience/dp/B0CSDDZJFQ/ref=sr_1_4?c=ts&amp;dib=eyJ2IjoiMSJ9.2GkvNPCeaKhaC6diij1KcbHfLOihmcR9MPolICWvOds4Pxgd68USwe8DqlWCYRX9E7T_Wzvyll1nv60h9UdFaVAe4LdMYk2HQcxQd7wSbd1O7GT2-3imf9uqJC7DsK6BinfscDVb6jZmxUjQiGr3xEtDbvmigDLWwlZIliOHLJ9U5_MicetPDftrr7oGvm14nZxfIyOC6mZc13j747MzLligfEK6PcS-Y57yiK3cvJN05qHUV40O2_Hw2JXWxQ6KIxZaFwXtvGu7hrLUyA7ziq0kgXimx818KQgtF-A0twU.KEk9ccj3Dwqiju9Y1TZPf-olJEs8Rv7uKLqS9ujZu2w&amp;dib_tag=se&amp;keywords=LED+Diodes&amp;qid=1721818074&amp;s=industrial&amp;sr=1-4&amp;ts_id=10388891031" xr:uid="{DF5ECAD5-98DD-434D-AC21-981A114328F6}"/>
-    <hyperlink ref="K21" r:id="rId12" xr:uid="{C836FBB4-F237-4BA8-BD6D-8A92A98C5A33}"/>
-    <hyperlink ref="E32" r:id="rId13" xr:uid="{FF51FDD4-2F54-47C4-80F1-E513AE3379E5}"/>
-    <hyperlink ref="K32" r:id="rId14" xr:uid="{59B0F52D-3761-407B-8526-16B8BD1762AB}"/>
-    <hyperlink ref="K14" r:id="rId15" xr:uid="{30EA0D00-1E7C-4185-9947-1F7B0CDFD516}"/>
-    <hyperlink ref="K33" r:id="rId16" display="https://www.amazon.de/-/en/KeeYees-Adapter-Prototype-TQFP100-QQQN444/dp/B085LC6ZSY/ref=sr_1_17?crid=1T3EHGG52EF9V&amp;dib=eyJ2IjoiMSJ9.nRnqv21X2z_-T0RW4ed0Tax59DHuIK9be7jBvZ221ZgEzBBfXYLvZQgCHkBNi1SpzCv3sBmo5QK4GzT_rqJOXpksQlaGFLKbUAwj70xEI2jQcZyuEh3Pdl88nTe7A7OAQBztbOjeTzHxuxaSoFmE0O1nXdR67iZOW8EEA3ZhgqxrQ2srlihg5rC7H1JC_UCMWv1IXNZEh7N9K4Mt2NallWFPXa8XlZ5gMROKCd_32IPKp70Hx8ybO_vAHfCb6hNezayFfGQ3wMbsHix17cojW93IyixK8YMRj5z0JMiT3_M.5eq3Z6976gWt1o83vhxwbBR-r-mwWYKu_zQecQ3Zvf8&amp;dib_tag=se&amp;keywords=smd+tht&amp;qid=1721976524&amp;sprefix=smd+tht+test%2Caps%2C86&amp;sr=8-17" xr:uid="{3D8950E4-A562-41A1-A7F1-9202B2ABF32B}"/>
-    <hyperlink ref="K34" r:id="rId17" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
-    <hyperlink ref="K35" r:id="rId18" display="https://octopart.com/opatz8j6/a1?t=m3MKmMPlltUlOaMyNv3oKjBZdMKsW17dy_Ut3gz9BnX84ucyH8jy82DqArAu4BfwE0Hye-7iCLl8KH0frtEOW989MvS5s7ux5kMEtqEpjHhVRKNi28LZWUZICT7zsPBmwWgjTMYjcOOVdfJXu9Y10LLBHTNi5TEX6yjYVdKqsLNYSCadhn_Li_cFolA9fQUsggKr6BxWSw52ZDMMaokL6vRljCt85LJQd_a1rKyujcjn71swSSETRfaBoDVV_VXxkQ" xr:uid="{CB92E7DB-FA84-47D1-9C2D-C21CBE2C47E3}"/>
-    <hyperlink ref="K36" r:id="rId19" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
-    <hyperlink ref="K29" r:id="rId20" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
-    <hyperlink ref="K28" r:id="rId21" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
-    <hyperlink ref="K30" r:id="rId22" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
-    <hyperlink ref="K17" r:id="rId23" xr:uid="{0E62FD95-3EB2-44BE-B536-BBB57A6390B5}"/>
-    <hyperlink ref="K18" r:id="rId24" xr:uid="{A0379706-7ABF-45C1-B633-5765FD102F04}"/>
+    <hyperlink ref="K26" r:id="rId2" xr:uid="{F3AD9EFC-A933-40C0-B3D6-105AE81F974F}"/>
+    <hyperlink ref="K27" r:id="rId3" xr:uid="{0B081703-43B3-49C1-ABA0-60C83F319C14}"/>
+    <hyperlink ref="K28" r:id="rId4" xr:uid="{A386B0E7-0270-440F-94E8-1A585C273E01}"/>
+    <hyperlink ref="K13" r:id="rId5" xr:uid="{0E5E05B1-9779-4867-83A4-99BCB07A9907}"/>
+    <hyperlink ref="K14" r:id="rId6" xr:uid="{BA21AA51-33E7-4503-9F53-E7E2E2FAACA3}"/>
+    <hyperlink ref="K15" r:id="rId7" xr:uid="{B1E78E7E-2247-4478-AE30-5D40F0D58865}"/>
+    <hyperlink ref="K17" r:id="rId8" xr:uid="{06E700D7-8F7D-42B2-BDA4-58445FAADBDC}"/>
+    <hyperlink ref="K18" r:id="rId9" xr:uid="{50D6414E-7EAA-4BE0-AFE6-B5E2EDDCBBF3}"/>
+    <hyperlink ref="K21" r:id="rId10" xr:uid="{6E8ED221-C460-4F2D-A839-674D0DD8E486}"/>
+    <hyperlink ref="K22" r:id="rId11" display="https://www.amazon.de/-/en/Emitting-Electronic-Components-Assortment-Experience/dp/B0CSDDZJFQ/ref=sr_1_4?c=ts&amp;dib=eyJ2IjoiMSJ9.2GkvNPCeaKhaC6diij1KcbHfLOihmcR9MPolICWvOds4Pxgd68USwe8DqlWCYRX9E7T_Wzvyll1nv60h9UdFaVAe4LdMYk2HQcxQd7wSbd1O7GT2-3imf9uqJC7DsK6BinfscDVb6jZmxUjQiGr3xEtDbvmigDLWwlZIliOHLJ9U5_MicetPDftrr7oGvm14nZxfIyOC6mZc13j747MzLligfEK6PcS-Y57yiK3cvJN05qHUV40O2_Hw2JXWxQ6KIxZaFwXtvGu7hrLUyA7ziq0kgXimx818KQgtF-A0twU.KEk9ccj3Dwqiju9Y1TZPf-olJEs8Rv7uKLqS9ujZu2w&amp;dib_tag=se&amp;keywords=LED+Diodes&amp;qid=1721818074&amp;s=industrial&amp;sr=1-4&amp;ts_id=10388891031" xr:uid="{DF5ECAD5-98DD-434D-AC21-981A114328F6}"/>
+    <hyperlink ref="K23" r:id="rId12" xr:uid="{C836FBB4-F237-4BA8-BD6D-8A92A98C5A33}"/>
+    <hyperlink ref="E34" r:id="rId13" xr:uid="{FF51FDD4-2F54-47C4-80F1-E513AE3379E5}"/>
+    <hyperlink ref="K34" r:id="rId14" xr:uid="{59B0F52D-3761-407B-8526-16B8BD1762AB}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{30EA0D00-1E7C-4185-9947-1F7B0CDFD516}"/>
+    <hyperlink ref="K35" r:id="rId16" display="https://www.amazon.de/-/en/KeeYees-Adapter-Prototype-TQFP100-QQQN444/dp/B085LC6ZSY/ref=sr_1_17?crid=1T3EHGG52EF9V&amp;dib=eyJ2IjoiMSJ9.nRnqv21X2z_-T0RW4ed0Tax59DHuIK9be7jBvZ221ZgEzBBfXYLvZQgCHkBNi1SpzCv3sBmo5QK4GzT_rqJOXpksQlaGFLKbUAwj70xEI2jQcZyuEh3Pdl88nTe7A7OAQBztbOjeTzHxuxaSoFmE0O1nXdR67iZOW8EEA3ZhgqxrQ2srlihg5rC7H1JC_UCMWv1IXNZEh7N9K4Mt2NallWFPXa8XlZ5gMROKCd_32IPKp70Hx8ybO_vAHfCb6hNezayFfGQ3wMbsHix17cojW93IyixK8YMRj5z0JMiT3_M.5eq3Z6976gWt1o83vhxwbBR-r-mwWYKu_zQecQ3Zvf8&amp;dib_tag=se&amp;keywords=smd+tht&amp;qid=1721976524&amp;sprefix=smd+tht+test%2Caps%2C86&amp;sr=8-17" xr:uid="{3D8950E4-A562-41A1-A7F1-9202B2ABF32B}"/>
+    <hyperlink ref="K36" r:id="rId17" xr:uid="{9A0B0992-EB9B-485C-8743-AB5373B961C2}"/>
+    <hyperlink ref="K37" r:id="rId18" display="https://octopart.com/opatz8j6/a1?t=m3MKmMPlltUlOaMyNv3oKjBZdMKsW17dy_Ut3gz9BnX84ucyH8jy82DqArAu4BfwE0Hye-7iCLl8KH0frtEOW989MvS5s7ux5kMEtqEpjHhVRKNi28LZWUZICT7zsPBmwWgjTMYjcOOVdfJXu9Y10LLBHTNi5TEX6yjYVdKqsLNYSCadhn_Li_cFolA9fQUsggKr6BxWSw52ZDMMaokL6vRljCt85LJQd_a1rKyujcjn71swSSETRfaBoDVV_VXxkQ" xr:uid="{CB92E7DB-FA84-47D1-9C2D-C21CBE2C47E3}"/>
+    <hyperlink ref="K38" r:id="rId19" xr:uid="{B67FB571-1B87-4184-A2B3-AF411BD87D35}"/>
+    <hyperlink ref="K31" r:id="rId20" xr:uid="{57963C92-CE56-4D91-B1F1-7FA05F5BC3A8}"/>
+    <hyperlink ref="K30" r:id="rId21" xr:uid="{9D795571-0999-43FF-9A1F-496FF99C86C0}"/>
+    <hyperlink ref="K32" r:id="rId22" xr:uid="{8465788D-FDE3-460C-960F-435D2FB5F396}"/>
+    <hyperlink ref="K19" r:id="rId23" xr:uid="{0E62FD95-3EB2-44BE-B536-BBB57A6390B5}"/>
+    <hyperlink ref="K20" r:id="rId24" xr:uid="{A0379706-7ABF-45C1-B633-5765FD102F04}"/>
     <hyperlink ref="K6" r:id="rId25" xr:uid="{A9D6150D-3C06-4D81-AD60-047F4F409296}"/>
     <hyperlink ref="K7" r:id="rId26" xr:uid="{411A7094-1AC1-4084-ABE4-5C0060EC1A2D}"/>
     <hyperlink ref="K8" r:id="rId27" xr:uid="{3DDB6C5A-7DB3-4C65-B604-D02293535F49}"/>
     <hyperlink ref="K9" r:id="rId28" display="https://www.amazon.de/Stecker-Buchsen-Kabel-Set-kompatibel-JST-PH-Stecker-Dr%C3%A4hte/dp/B0BM82KR17/ref=sr_1_3?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=MA1I8QQDO2R9&amp;dib=eyJ2IjoiMSJ9.FDMYgfrATA45RyPZyxLNYYGgT5yk-J2vuH1UrrGDszJ5fKfwcLZOV-eNrjiX0_V7nrEbDDsn3sVwLonQpymFF06qBU4KTAphfu9et2GN5u7J_v_2L4vYJZ4XZNzvae_OcW-7F41HkqS7HQ4PZ1Ao-WI0tMet5CMo1Bzshape6eNcdlZES6Sh-OYglpTXUU0u5dF9m4wMnoibyRjC2wV9Sto1n3wUtbrTmoG6beP4hStAT2i3R-DGuLP7atUHoX4ZQnPopiguO6c5EWHc0sSpUZnK93ZhZIv98x7IEiojCss.TZAZSnY2bVRQE8qfGH2FYhQoX3sUbjXr1MuNstDOGN0&amp;dib_tag=se&amp;keywords=jst+2mm+winkel&amp;qid=1721382806&amp;s=ce-de&amp;sprefix=jst+2mm+winkel%2Celectronics%2C90&amp;sr=1-3" xr:uid="{59E5E9F3-AE2D-4C06-9B78-2F30C97420C9}"/>
-    <hyperlink ref="K10" r:id="rId29" display="https://www.amazon.de/Sourcingmap%C2%AE-rechten-Einreihige-Stiftleiste-PCB-Steckverbinder-Black-Silver-Tone/dp/B01MZE0XGZ/ref=sr_1_2?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=30UQ32XMVEOXN&amp;dib=eyJ2IjoiMSJ9.yl2DLiqdSMCvFJDFZqTKgUH67xEpPOL40VD2AFIkG-UVuzOI9AaqWj6c1QgSiCn7hk05FWychE9FePelrXDhrx8em4i4SmadkDqm8tD_rw9vdmMLNh68adnrUu-GEIXx3JcPfOHWruMciXYFg7IYLW6ouYqX2t7OpXQyrIWp9qfW6VVlyLcSOlxu99s5ni58gvswEZke7glukuR6cKzmRpHdyVh-uVExobnZmGNZHApgLz7h-ZMXrQq6hEE3srvrZrSBQQDvA_NN-Yhpyev3ZGXq76pUZSA4LFbhGazIe6s.zFPbYnk3PEWXUlrobf2fvrzvsV48VUdck_WWv7Vof8w&amp;dib_tag=se&amp;keywords=pin+header+winkel&amp;qid=1721383256&amp;sprefix=pinheader+winkel%2Caps%2C104&amp;sr=8-2" xr:uid="{2B77B7B0-D725-4006-ADC9-9301FF6B0095}"/>
+    <hyperlink ref="K11" r:id="rId29" display="https://www.amazon.de/Sourcingmap%C2%AE-rechten-Einreihige-Stiftleiste-PCB-Steckverbinder-Black-Silver-Tone/dp/B01MZE0XGZ/ref=sr_1_2?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=30UQ32XMVEOXN&amp;dib=eyJ2IjoiMSJ9.yl2DLiqdSMCvFJDFZqTKgUH67xEpPOL40VD2AFIkG-UVuzOI9AaqWj6c1QgSiCn7hk05FWychE9FePelrXDhrx8em4i4SmadkDqm8tD_rw9vdmMLNh68adnrUu-GEIXx3JcPfOHWruMciXYFg7IYLW6ouYqX2t7OpXQyrIWp9qfW6VVlyLcSOlxu99s5ni58gvswEZke7glukuR6cKzmRpHdyVh-uVExobnZmGNZHApgLz7h-ZMXrQq6hEE3srvrZrSBQQDvA_NN-Yhpyev3ZGXq76pUZSA4LFbhGazIe6s.zFPbYnk3PEWXUlrobf2fvrzvsV48VUdck_WWv7Vof8w&amp;dib_tag=se&amp;keywords=pin+header+winkel&amp;qid=1721383256&amp;sprefix=pinheader+winkel%2Caps%2C104&amp;sr=8-2" xr:uid="{2B77B7B0-D725-4006-ADC9-9301FF6B0095}"/>
     <hyperlink ref="K5" r:id="rId30" xr:uid="{56E44BCE-942A-4E32-8574-907151789664}"/>
-    <hyperlink ref="K22" r:id="rId31" display="https://www.amazon.de/-/en/Capacitor-Assortment-Electrolytic-Capacitors-Aluminium/dp/B09QH1RLRS/ref=sr_1_5?crid=MXP52929GLQF&amp;dib=eyJ2IjoiMSJ9.RVY4AKzuAKEuJTtsjJJyAjJN9dTUKTzMyAFbwbFQ9TN9T9C6FQ6jEbz5YhVbDbdMkSnm5DKnBIJl_XR3nCkiZvZ8qBxyFkP5DE-H0QH2e0LU-xb6fKOU3K5dgabojwYdkqXPT8_Crzfg3wCzX6NZ0kNe4l1kiD1OOIvn4RVD6J_mrfygtByox4gT8deaDI5vmVCNWQjuvIbrESS2VQBYV3j5LwPPKCdDp_ieM0jSKHfCHtdVZxtyW1QcrFUTBltGEo3DHrbbHGndykkj50wTc98L8p5Hi8W9aHQR3MNFSAM.C6EdXg8VemgyEusoxnNl57g3RPDCQROGEsYtZcxEtls&amp;dib_tag=se&amp;keywords=Kondensator&amp;qid=1722243539&amp;sprefix=kondensator%2Caps%2C95&amp;sr=8-5&amp;th=1" xr:uid="{0F5D6938-DDE4-45D4-8279-23754047E314}"/>
-    <hyperlink ref="K23" r:id="rId32" xr:uid="{DB18A17F-C32F-4183-9A31-6F16EA684658}"/>
-    <hyperlink ref="K31" r:id="rId33" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
+    <hyperlink ref="K24" r:id="rId31" display="https://www.amazon.de/-/en/Capacitor-Assortment-Electrolytic-Capacitors-Aluminium/dp/B09QH1RLRS/ref=sr_1_5?crid=MXP52929GLQF&amp;dib=eyJ2IjoiMSJ9.RVY4AKzuAKEuJTtsjJJyAjJN9dTUKTzMyAFbwbFQ9TN9T9C6FQ6jEbz5YhVbDbdMkSnm5DKnBIJl_XR3nCkiZvZ8qBxyFkP5DE-H0QH2e0LU-xb6fKOU3K5dgabojwYdkqXPT8_Crzfg3wCzX6NZ0kNe4l1kiD1OOIvn4RVD6J_mrfygtByox4gT8deaDI5vmVCNWQjuvIbrESS2VQBYV3j5LwPPKCdDp_ieM0jSKHfCHtdVZxtyW1QcrFUTBltGEo3DHrbbHGndykkj50wTc98L8p5Hi8W9aHQR3MNFSAM.C6EdXg8VemgyEusoxnNl57g3RPDCQROGEsYtZcxEtls&amp;dib_tag=se&amp;keywords=Kondensator&amp;qid=1722243539&amp;sprefix=kondensator%2Caps%2C95&amp;sr=8-5&amp;th=1" xr:uid="{0F5D6938-DDE4-45D4-8279-23754047E314}"/>
+    <hyperlink ref="K25" r:id="rId32" xr:uid="{DB18A17F-C32F-4183-9A31-6F16EA684658}"/>
+    <hyperlink ref="K33" r:id="rId33" xr:uid="{D632E27D-8B4B-473B-9951-117DBC2C36E0}"/>
     <hyperlink ref="K3" r:id="rId34" xr:uid="{C49F6822-A4DD-42C2-B3BF-0381D137937C}"/>
     <hyperlink ref="K4" r:id="rId35" xr:uid="{BF0FEABB-4850-4BC5-A11D-D889C6B926FD}"/>
-    <hyperlink ref="K27" r:id="rId36" xr:uid="{66A91D05-7CE3-4038-A1EB-C4A53D9CDC20}"/>
+    <hyperlink ref="K29" r:id="rId36" xr:uid="{66A91D05-7CE3-4038-A1EB-C4A53D9CDC20}"/>
+    <hyperlink ref="K12" r:id="rId37" xr:uid="{300DDE3F-EE23-4C83-BDE8-E7BCB6E6BCA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
   <tableParts count="1">
-    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId39"/>
   </tableParts>
 </worksheet>
 </file>

--- a/i2C Materialliste/Elektronik.xlsx
+++ b/i2C Materialliste/Elektronik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\i2C Materialliste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64213D71-D36E-4909-B20B-2AE24949E305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B9C0EE-2218-4E67-AFC0-D0AB8C7A7026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DifI2C" sheetId="5" r:id="rId1"/>
@@ -1611,6 +1611,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1634,12 +1640,6 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2602,7 +2602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y25" sqref="Y25"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2680,18 +2680,18 @@
       <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="T1" s="58"/>
+      <c r="T1" s="60"/>
       <c r="U1" s="37">
         <f>SUMIFS(N6:N38,O6:O38, "Nicht Gekauft",P6:P38,"Benötigt")</f>
         <v>83</v>
       </c>
-      <c r="W1" s="55" t="s">
+      <c r="W1" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="X1" s="56"/>
+      <c r="X1" s="58"/>
       <c r="Y1" s="26">
         <f>SUM(N2:N38)</f>
         <v>243.05999999999995</v>
@@ -3108,11 +3108,11 @@
       <c r="M10" s="13">
         <v>1</v>
       </c>
-      <c r="N10" s="63">
+      <c r="N10" s="55">
         <f>L10*M10</f>
         <v>8.0500000000000007</v>
       </c>
-      <c r="O10" s="64"/>
+      <c r="O10" s="56"/>
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -3203,7 +3203,7 @@
         <f t="shared" ref="N12" si="2">L12*M12</f>
         <v>0.78</v>
       </c>
-      <c r="O12" s="64"/>
+      <c r="O12" s="56"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="24"/>
     </row>
@@ -4475,10 +4475,10 @@
         <f>SUBTOTAL(9,F1:F38)</f>
         <v>0.112465</v>
       </c>
-      <c r="L40" s="61" t="s">
+      <c r="L40" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="M40" s="62"/>
+      <c r="M40" s="64"/>
       <c r="N40" s="39">
         <f>SUBTOTAL(9,N1:N38)</f>
         <v>177.14</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="7"/>
-      <c r="L43" s="59" t="s">
+      <c r="L43" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="M43" s="60"/>
+      <c r="M43" s="62"/>
       <c r="N43" s="25">
         <f>SUBTOTAL(9,R1:R38)</f>
         <v>100.82999999999998</v>

--- a/i2C Materialliste/Elektronik.xlsx
+++ b/i2C Materialliste/Elektronik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\i2C Materialliste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B9C0EE-2218-4E67-AFC0-D0AB8C7A7026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325C240B-A1A4-43BA-8D6C-AB99E8EA218F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10824" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DifI2C" sheetId="5" r:id="rId1"/>
@@ -2256,6 +2256,7 @@
         <filter val="B1"/>
         <filter val="B2"/>
         <filter val="B3"/>
+        <filter val="K1"/>
         <filter val="K2"/>
         <filter val="SR2"/>
         <filter val="TP1"/>
@@ -2602,7 +2603,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3504,7 +3505,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>132</v>
       </c>
@@ -4481,7 +4482,7 @@
       <c r="M40" s="64"/>
       <c r="N40" s="39">
         <f>SUBTOTAL(9,N1:N38)</f>
-        <v>177.14</v>
+        <v>189.16</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/i2C Materialliste/Elektronik.xlsx
+++ b/i2C Materialliste/Elektronik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\i2C Materialliste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325C240B-A1A4-43BA-8D6C-AB99E8EA218F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF28D82-CB4E-4ED9-8F2A-2ED06AE1840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10824" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DifI2C" sheetId="5" r:id="rId1"/>
@@ -2603,7 +2603,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="T28" sqref="T27:U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/i2C Materialliste/Elektronik.xlsx
+++ b/i2C Materialliste/Elektronik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\github\fiberprinter-electronics\i2C Materialliste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF28D82-CB4E-4ED9-8F2A-2ED06AE1840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4444BDB-5EAC-4A73-8B48-96241F734B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DifI2C" sheetId="5" r:id="rId1"/>
@@ -2603,7 +2603,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T28" sqref="T27:U28"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
